--- a/ens_e_aval_agosto_2021_perguntas.xlsx
+++ b/ens_e_aval_agosto_2021_perguntas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\MEGAsync\CAELT\Imagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\MEGAsync\CAELT\Imagens\mudar_as_coisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D85782-38FB-40D4-8C7F-30DFA448016E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A403CA-2381-4221-AA02-A454F7944954}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
